--- a/datas/Jenis dan Persyaratan Cuti.xlsx
+++ b/datas/Jenis dan Persyaratan Cuti.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12030"/>
+    <workbookView windowWidth="13260" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -77,6 +78,36 @@
   </si>
   <si>
     <t>Surat edaran dari 3 menteri</t>
+  </si>
+  <si>
+    <t>Catatan Cuti</t>
+  </si>
+  <si>
+    <t>Jenis Cuti</t>
+  </si>
+  <si>
+    <t>Jumalah</t>
+  </si>
+  <si>
+    <t>Sisa</t>
+  </si>
+  <si>
+    <t>Cuti tahunan N-2</t>
+  </si>
+  <si>
+    <t>Cuti tahunan N-1</t>
+  </si>
+  <si>
+    <t>Cuti tahunan N</t>
+  </si>
+  <si>
+    <t>Cuti Besar</t>
+  </si>
+  <si>
+    <t>Cuti Melahirkan</t>
+  </si>
+  <si>
+    <t>Cuti di luar tanggungan negara</t>
   </si>
 </sst>
 </file>
@@ -84,10 +115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,6 +139,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +169,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,28 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -175,68 +192,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,175 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,17 +485,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,21 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -534,11 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,136 +581,136 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1017,8 +1048,8 @@
   <sheetPr/>
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1142,4 +1173,75 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="30.5714285714286" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>